--- a/docs/mcode/shr-core-BodyLocation-extension.xlsx
+++ b/docs/mcode/shr-core-BodyLocation-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -139,8 +139,8 @@
   <si>
     <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.
 The BodyLocation includes code and optional qualifiers of anatomical side or direction. The body location can also be determined from one or more body landmarks.
-If the code for the body location includes laterality and/or direction, the LocationQualifier might be unnecessary.
-Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how the same address structure can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodyLocation (BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+If the code for the body location includes laterality and/or anatomical direction, the corresponding attributes might be unnecessary.
+Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how an address structure can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>1</t>
@@ -189,23 +189,33 @@
 </t>
   </si>
   <si>
-    <t>Code for the body location, optionally defining laterality or direction.</t>
-  </si>
-  <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
+    <t>Code for the body location, optionally pre-coordinating laterality or direction.</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -387,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -397,7 +407,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -744,7 +754,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>38</v>
@@ -941,7 +951,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -1038,7 +1048,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1122,18 +1132,20 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1147,11 +1159,9 @@
       <c r="J8" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="K8" s="2"/>
+      <c r="L8" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1160,7 +1170,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>36</v>
@@ -1202,10 +1212,10 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>41</v>
@@ -1219,7 +1229,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1227,10 +1237,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1242,13 +1252,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1257,7 +1267,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>36</v>
@@ -1299,23 +1309,120 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="s" s="2">
+      <c r="F10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI9">
+  <autoFilter ref="A1:AI10">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1325,7 +1432,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
+  <conditionalFormatting sqref="A2:AI9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-BodyLocation-extension.xlsx
+++ b/docs/mcode/shr-core-BodyLocation-extension.xlsx
@@ -203,7 +203,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -220,7 +220,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -240,7 +240,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
